--- a/excelsht.xlsx
+++ b/excelsht.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>location</t>
   </si>
@@ -31,6 +31,18 @@
   </si>
   <si>
     <t>05/10/205</t>
+  </si>
+  <si>
+    <t>muk</t>
+  </si>
+  <si>
+    <t>google link</t>
+  </si>
+  <si>
+    <t>utamu</t>
+  </si>
+  <si>
+    <t>softlink</t>
   </si>
 </sst>
 </file>
@@ -66,9 +78,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,15 +376,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -400,6 +413,48 @@
       </c>
       <c r="D2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>41899.53125</v>
+      </c>
+      <c r="D3" s="2">
+        <v>41901.438888888886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>42225.557638888888</v>
+      </c>
+      <c r="D4" s="2">
+        <v>42225.722222222219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>41899.523611111108</v>
+      </c>
+      <c r="D5" s="2">
+        <v>41900.580555555556</v>
       </c>
     </row>
   </sheetData>

--- a/excelsht.xlsx
+++ b/excelsht.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>location</t>
   </si>
@@ -30,19 +30,25 @@
     <t>stop</t>
   </si>
   <si>
-    <t>05/10/205</t>
-  </si>
-  <si>
     <t>muk</t>
   </si>
   <si>
-    <t>google link</t>
-  </si>
-  <si>
     <t>utamu</t>
   </si>
   <si>
     <t>softlink</t>
+  </si>
+  <si>
+    <t>kyambogo</t>
+  </si>
+  <si>
+    <t>ucu</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>googlelink</t>
   </si>
 </sst>
 </file>
@@ -379,12 +385,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -402,25 +411,25 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
+      <c r="A2" t="s">
         <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>42252</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
+      <c r="D2" s="1">
+        <v>42249</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>41899.53125</v>
@@ -430,11 +439,11 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>42225.557638888888</v>
@@ -445,10 +454,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>41899.523611111108</v>
